--- a/English AmeliaT.xlsx
+++ b/English AmeliaT.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Est01\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Est01\Documents\Ingles\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24118C13-EE0E-4507-B145-49D00C5CED4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A657A1-ECBD-406D-BE40-A2AD71431839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{97DB0725-6605-47A2-9DD0-545F5418237E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{97DB0725-6605-47A2-9DD0-545F5418237E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="pantallazos" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="114">
   <si>
     <t>Anti</t>
   </si>
@@ -427,6 +428,9 @@
       </rPr>
       <t xml:space="preserve"> the laptop very late</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.english-grammar.at/online_exercises/prefixes-suffixes/prefixes-suffixes-index.htm</t>
   </si>
 </sst>
 </file>
@@ -586,6 +590,275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190095</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5AE1FC8-B16D-49E3-A1D8-3D251E087E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="1905000"/>
+          <a:ext cx="3238095" cy="5638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580296</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114214</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagen 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20A9EA7C-5F2F-4C26-AFFB-6059B3B11042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2371725" y="571500"/>
+          <a:ext cx="5828571" cy="685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>275442</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>94525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC1075F-4FFA-4B14-8D35-9F4F5D340410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3152775" y="9153525"/>
+          <a:ext cx="6266667" cy="5800000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>427333</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>104595</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1996FCB7-1EFD-401D-9629-1F45D7946656}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="7810500"/>
+          <a:ext cx="10333333" cy="1438095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>218190</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>37667</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BDF1AA1-F836-4F21-9F4D-28CC48E153BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="16192500"/>
+          <a:ext cx="7076190" cy="3466667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>399238</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB822F94-2DF4-4EBF-8CD5-2220C8980A8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3048000" y="15430500"/>
+          <a:ext cx="6495238" cy="952381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -887,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5F9BEA3-BE80-496D-B3A4-6D607E20B6F0}">
   <dimension ref="D4:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="C25" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1398,4 +1671,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20269028-FDC9-49AB-A79F-5C5D193A7D57}">
+  <dimension ref="F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="8" spans="6:6">
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>